--- a/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/actual_price_determination_from_CBIX_price/bauxite_at_hand_cost_to_alumina_production_cost_calcs_excluding_common_elements.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/actual_price_determination_from_CBIX_price/bauxite_at_hand_cost_to_alumina_production_cost_calcs_excluding_common_elements.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1714,78 +1714,78 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07875</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.46125</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.35654530458348</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>76.02705321679251</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2020201484623542</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>49.06203605514316</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>56.57898214285714</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.234285714285714</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.594565453045835</v>
+        <v>-1</v>
       </c>
       <c r="K34" t="n">
-        <v>6.833851941625006</v>
+        <v>-4.285714285714286</v>
       </c>
       <c r="L34" t="n">
-        <v>189.7362090707035</v>
+        <v>-4.285714285714286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.456634110653895</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.0512643631856213</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.4053697474682737</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.68139526574859</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>79.12688439368544</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.1587140186727871</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>38.5448331062483</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>50.92108392857143</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.234285714285714</v>
       </c>
       <c r="J35" t="n">
-        <v>-1</v>
+        <v>1.876109284421377</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.285714285714286</v>
+        <v>8.0404683618059</v>
       </c>
       <c r="L35" t="n">
-        <v>-4.285714285714286</v>
+        <v>177.8675555045968</v>
       </c>
     </row>
     <row r="36">
@@ -1866,40 +1866,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.557544757033248</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>136.5345674506215</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06952685421994885</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>16.88509316770186</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>50.92108392857143</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.234285714285714</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.663071611253197</v>
+        <v>-1</v>
       </c>
       <c r="K38" t="n">
-        <v>7.127449762513701</v>
+        <v>-4.285714285714286</v>
       </c>
       <c r="L38" t="n">
-        <v>212.7024800236942</v>
+        <v>-4.285714285714286</v>
       </c>
     </row>
     <row r="39">
@@ -2056,40 +2056,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.557544757033248</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>119.2280412013279</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06952685421994885</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>16.88509316770186</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>50.92108392857143</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.234285714285714</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.663071611253197</v>
+        <v>-1</v>
       </c>
       <c r="K43" t="n">
-        <v>7.127449762513701</v>
+        <v>-4.285714285714286</v>
       </c>
       <c r="L43" t="n">
-        <v>195.3959537744006</v>
+        <v>-4.285714285714286</v>
       </c>
     </row>
     <row r="44">
@@ -2132,25 +2132,25 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4040000000000001</v>
+        <v>0.481</v>
       </c>
       <c r="B45" t="n">
-        <v>0.012</v>
+        <v>0.031</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3920000000000001</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>2.772848269742679</v>
+        <v>2.415458937198067</v>
       </c>
       <c r="E45" t="n">
-        <v>150.2739624191032</v>
+        <v>134.3718179093553</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06494676131322094</v>
+        <v>0.1023913043478261</v>
       </c>
       <c r="G45" t="n">
-        <v>15.77278489035366</v>
+        <v>24.86645962732919</v>
       </c>
       <c r="H45" t="n">
         <v>50.92108392857143</v>
@@ -2159,36 +2159,36 @@
         <v>1.234285714285714</v>
       </c>
       <c r="J45" t="n">
-        <v>1.8737950310559</v>
+        <v>1.553850241545893</v>
       </c>
       <c r="K45" t="n">
-        <v>8.030550133096714</v>
+        <v>6.659358178053829</v>
       </c>
       <c r="L45" t="n">
-        <v>226.2326670854107</v>
+        <v>218.0530053575955</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.481</v>
+        <v>0.44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.031</v>
+        <v>0.015</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="D46" t="n">
-        <v>2.415458937198067</v>
+        <v>2.557544757033248</v>
       </c>
       <c r="E46" t="n">
-        <v>134.3718179093553</v>
+        <v>136.5345674506215</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1023913043478261</v>
+        <v>0.06952685421994885</v>
       </c>
       <c r="G46" t="n">
-        <v>24.86645962732919</v>
+        <v>16.88509316770186</v>
       </c>
       <c r="H46" t="n">
         <v>50.92108392857143</v>
@@ -2197,13 +2197,127 @@
         <v>1.234285714285714</v>
       </c>
       <c r="J46" t="n">
-        <v>1.553850241545893</v>
+        <v>1.663071611253197</v>
       </c>
       <c r="K46" t="n">
-        <v>6.659358178053829</v>
+        <v>7.127449762513701</v>
       </c>
       <c r="L46" t="n">
-        <v>218.0530053575955</v>
+        <v>212.7024800236942</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.105590062111801</v>
+      </c>
+      <c r="E47" t="n">
+        <v>213.2648233188289</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.07692546583850932</v>
+      </c>
+      <c r="G47" t="n">
+        <v>18.68189884649512</v>
+      </c>
+      <c r="H47" t="n">
+        <v>50.92108392857143</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.234285714285714</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.218515527950311</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9.507923691215616</v>
+      </c>
+      <c r="L47" t="n">
+        <v>293.6100154993968</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.4040000000000001</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3920000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.772848269742679</v>
+      </c>
+      <c r="E48" t="n">
+        <v>150.2739624191032</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.06494676131322094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>15.77278489035366</v>
+      </c>
+      <c r="H48" t="n">
+        <v>50.92108392857143</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.234285714285714</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.8737950310559</v>
+      </c>
+      <c r="K48" t="n">
+        <v>8.030550133096714</v>
+      </c>
+      <c r="L48" t="n">
+        <v>226.2326670854107</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.4040000000000001</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3920000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.772848269742679</v>
+      </c>
+      <c r="E49" t="n">
+        <v>150.2739624191032</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.06494676131322094</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15.77278489035366</v>
+      </c>
+      <c r="H49" t="n">
+        <v>50.92108392857143</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.234285714285714</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.8737950310559</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8.030550133096714</v>
+      </c>
+      <c r="L49" t="n">
+        <v>226.2326670854107</v>
       </c>
     </row>
   </sheetData>
